--- a/MergedDocuments/ontology terms.xlsx
+++ b/MergedDocuments/ontology terms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Rothamsted-Ecoinformatics\YieldbookDatasetDrafts\MergedDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\rothamsted-ecoinformatics\YieldbookDatasetDrafts\MergedDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B1EFA-0565-41FE-824D-AE20AAA813F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230DB56A-1ED7-4C11-8B94-8F270ED1F36F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{798D2C4A-CEDB-4019-8EE2-CB4D387A9407}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{798D2C4A-CEDB-4019-8EE2-CB4D387A9407}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="151">
   <si>
     <t>URI</t>
   </si>
@@ -308,13 +308,190 @@
   </si>
   <si>
     <t>mechanical pest removal process</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_6636</t>
+  </si>
+  <si>
+    <t>rollers</t>
+  </si>
+  <si>
+    <t>Cambridge roller &amp; cultipacker are the same from wikipedia, https://en.wikipedia.org/wiki/Roller_(agricultural_tool)</t>
+  </si>
+  <si>
+    <t>mechanical pest destruction process</t>
+  </si>
+  <si>
+    <t>AGRO_00000108</t>
+  </si>
+  <si>
+    <t>AGRO_00000129</t>
+  </si>
+  <si>
+    <t>mouldboard plough</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_6022</t>
+  </si>
+  <si>
+    <t>ploughs</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_25695</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_5250</t>
+  </si>
+  <si>
+    <t>NPK fertilisers</t>
+  </si>
+  <si>
+    <t>PK fertilisers</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_2385</t>
+  </si>
+  <si>
+    <t>fertiliser drilling</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_5805</t>
+  </si>
+  <si>
+    <t>different to furrow placement in AGRO https://farmer.gov.in/dacdivision/Machinery1/chap2a.pdf</t>
+  </si>
+  <si>
+    <t>fertiliser drill</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the chemical form of whatever is used</t>
+  </si>
+  <si>
+    <t>the type of thing</t>
+  </si>
+  <si>
+    <t>the method for the process, really this is a narrower class of the process?</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_330801</t>
+  </si>
+  <si>
+    <t>manual harvesting</t>
+  </si>
+  <si>
+    <t>mechanical harvesting</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_35384</t>
+  </si>
+  <si>
+    <t>Mancozeb</t>
+  </si>
+  <si>
+    <t>carbamates</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_31408</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_7333</t>
+  </si>
+  <si>
+    <t>sprayers</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_26844</t>
+  </si>
+  <si>
+    <t>lifting</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>process type</t>
+  </si>
+  <si>
+    <t>Paraquat</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_31452</t>
+  </si>
+  <si>
+    <t>chemical crop destruction process</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_31468</t>
+  </si>
+  <si>
+    <t>Pirimicarb</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_7030</t>
+  </si>
+  <si>
+    <t>AGRO_00000426</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_25243</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_6140</t>
+  </si>
+  <si>
+    <t>potassium chloride</t>
+  </si>
+  <si>
+    <t>muriate of potash</t>
+  </si>
+  <si>
+    <t>AGRO_00000040</t>
+  </si>
+  <si>
+    <t>broadcast application methods</t>
+  </si>
+  <si>
+    <t>regulation of grazing (grazing)</t>
+  </si>
+  <si>
+    <t>path maintenance process</t>
+  </si>
+  <si>
+    <t>Herrisol</t>
+  </si>
+  <si>
+    <t>Actril C</t>
+  </si>
+  <si>
+    <t>Banlene Plus</t>
+  </si>
+  <si>
+    <t>Brittox</t>
+  </si>
+  <si>
+    <t>Tetralex Plus</t>
+  </si>
+  <si>
+    <t>Mecoprop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +503,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,9 +537,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -670,21 +856,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8617AF10-E0B6-4540-B345-DF04DF36DC6B}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,8 +889,11 @@
       <c r="J1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -723,24 +912,42 @@
       <c r="J2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -750,8 +957,17 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -761,8 +977,11 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -770,7 +989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -778,7 +997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -786,7 +1005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -794,7 +1013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -805,7 +1024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -816,7 +1035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -824,7 +1043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -832,7 +1051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -840,7 +1059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
@@ -848,7 +1067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -859,7 +1078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>48</v>
       </c>
@@ -867,7 +1086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>50</v>
       </c>
@@ -875,7 +1094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -886,7 +1105,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -897,7 +1116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -905,7 +1124,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -916,52 +1135,52 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -969,28 +1188,28 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -998,7 +1217,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1006,15 +1225,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -1022,7 +1241,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -1030,12 +1249,194 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>90</v>
       </c>
       <c r="C42" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1044,38 +1445,86 @@
     <hyperlink ref="B10" r:id="rId2" xr:uid="{91A0E43E-EFAC-48C2-B3A9-047E51638E75}"/>
     <hyperlink ref="B16" r:id="rId3" xr:uid="{F886B5A5-8158-442C-8171-F8AF35B6F547}"/>
     <hyperlink ref="B21" r:id="rId4" xr:uid="{FE50C890-7992-45B2-A3CC-55ECB25B72E3}"/>
+    <hyperlink ref="B43" r:id="rId5" xr:uid="{6168293E-81DE-4FF4-AE22-07B99CD366EF}"/>
+    <hyperlink ref="B46" r:id="rId6" xr:uid="{B6DF11FC-845E-4226-857D-66CBB21C6AA6}"/>
+    <hyperlink ref="B34" r:id="rId7" xr:uid="{6E15590F-7BD3-4777-BB0A-99862A934118}"/>
+    <hyperlink ref="B49" r:id="rId8" xr:uid="{D3188A1B-1806-41A8-A4BD-7E3A190C3887}"/>
+    <hyperlink ref="B48" r:id="rId9" xr:uid="{B5B6565E-ED15-44F6-82CD-B66491647428}"/>
+    <hyperlink ref="B39" r:id="rId10" xr:uid="{91D4DBFC-CDA9-430B-ACEA-98CB5AE9A215}"/>
+    <hyperlink ref="B52" r:id="rId11" xr:uid="{51B5E1F0-2D4C-41D2-BB73-39297D200322}"/>
+    <hyperlink ref="B53" r:id="rId12" xr:uid="{9C93D84B-BAF8-4C88-B369-C66AF0F2995A}"/>
+    <hyperlink ref="B54" r:id="rId13" xr:uid="{B390579F-23C4-422D-8CA5-72F2347B2A96}"/>
+    <hyperlink ref="B56" r:id="rId14" xr:uid="{CF41313F-3D83-444D-BA7C-D0E2890A03A5}"/>
+    <hyperlink ref="B57" r:id="rId15" xr:uid="{7BEE7777-5685-4838-8613-00B8ED39F060}"/>
+    <hyperlink ref="B59" r:id="rId16" xr:uid="{F23E4EA8-EDB8-4CFF-8D38-0FCC57EB79A7}"/>
+    <hyperlink ref="B60" r:id="rId17" xr:uid="{9BD889A8-9DD2-4D19-A346-45BE7FE35618}"/>
+    <hyperlink ref="B61" r:id="rId18" xr:uid="{0EEA89E1-06E8-4A42-8019-1E6B984763DD}"/>
+    <hyperlink ref="B62" r:id="rId19" xr:uid="{DC4BF027-014C-4397-933B-52FF18D3D638}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DDE5FB-DA94-4AEB-A34B-1A651CE91E50}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MergedDocuments/ontology terms.xlsx
+++ b/MergedDocuments/ontology terms.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\rothamsted-ecoinformatics\YieldbookDatasetDrafts\MergedDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Rothamsted-Ecoinformatics\YieldbookDatasetDrafts\MergedDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230DB56A-1ED7-4C11-8B94-8F270ED1F36F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78952EF5-7ADE-49F6-B6CD-00CA27E22B24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{798D2C4A-CEDB-4019-8EE2-CB4D387A9407}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{798D2C4A-CEDB-4019-8EE2-CB4D387A9407}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="pesticides" sheetId="4" r:id="rId2"/>
+    <sheet name="Notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="195">
   <si>
     <t>URI</t>
   </si>
@@ -106,9 +107,6 @@
     <t>chemical pest control process</t>
   </si>
   <si>
-    <t>Gallup 360</t>
-  </si>
-  <si>
     <t>Glyphosate</t>
   </si>
   <si>
@@ -485,6 +483,141 @@
   </si>
   <si>
     <t>Mecoprop</t>
+  </si>
+  <si>
+    <t>mecoprop</t>
+  </si>
+  <si>
+    <t>phenoxypropionic herbicides</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_e4855bfd</t>
+  </si>
+  <si>
+    <t>MCPP; CMPP</t>
+  </si>
+  <si>
+    <t>synonyms</t>
+  </si>
+  <si>
+    <t>auxins</t>
+  </si>
+  <si>
+    <t>2,4-D</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_8543</t>
+  </si>
+  <si>
+    <t>dichlorprop</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_31329</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_31397</t>
+  </si>
+  <si>
+    <t>ioxynil</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_31280</t>
+  </si>
+  <si>
+    <t>bromoxynil</t>
+  </si>
+  <si>
+    <t>bromoxynil octanoate</t>
+  </si>
+  <si>
+    <t>nitrile herbicides</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_065f7b6b</t>
+  </si>
+  <si>
+    <t>carbendazim</t>
+  </si>
+  <si>
+    <t>benzimidazoles</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_31291</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_2248</t>
+  </si>
+  <si>
+    <t>dicamba</t>
+  </si>
+  <si>
+    <t>quaternary ammonium compounds</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_4666</t>
+  </si>
+  <si>
+    <t>MCPA</t>
+  </si>
+  <si>
+    <t>maneb</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_31407</t>
+  </si>
+  <si>
+    <t>glyphosate</t>
+  </si>
+  <si>
+    <t>organophosphorus compounds</t>
+  </si>
+  <si>
+    <t>surfactants</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_7529</t>
+  </si>
+  <si>
+    <t>wetting agents</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_26769</t>
+  </si>
+  <si>
+    <t>desiccants</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_3823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incorporation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. for dung ploughing in </t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_16118</t>
+  </si>
+  <si>
+    <t>crop residues</t>
+  </si>
+  <si>
+    <t>nothing for sugar beet tops</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_2810</t>
+  </si>
+  <si>
+    <t>farmyard manure</t>
+  </si>
+  <si>
+    <t>dung</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_6927</t>
+  </si>
+  <si>
+    <t>seed</t>
   </si>
 </sst>
 </file>
@@ -856,21 +989,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8617AF10-E0B6-4540-B345-DF04DF36DC6B}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -883,17 +1016,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -906,48 +1030,24 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,18 +1057,9 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
@@ -977,11 +1068,8 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="M6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -989,7 +1077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -997,7 +1085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1005,361 +1093,361 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
         <v>84</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
         <v>86</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
         <v>88</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
         <v>90</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="C43" t="s">
         <v>92</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>93</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>96</v>
       </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
         <v>97</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>101</v>
       </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>102</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
         <v>107</v>
       </c>
-      <c r="C48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
         <v>116</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
         <v>119</v>
       </c>
-      <c r="C52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C53" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
+      <c r="C54" t="s">
         <v>123</v>
       </c>
-      <c r="C54" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>10</v>
       </c>
@@ -1367,76 +1455,136 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
         <v>125</v>
       </c>
-      <c r="C56" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>130</v>
       </c>
-      <c r="C57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+      <c r="C59" t="s">
         <v>132</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>135</v>
       </c>
-      <c r="C60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>144</v>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1460,13 +1608,228 @@
     <hyperlink ref="B60" r:id="rId17" xr:uid="{9BD889A8-9DD2-4D19-A346-45BE7FE35618}"/>
     <hyperlink ref="B61" r:id="rId18" xr:uid="{0EEA89E1-06E8-4A42-8019-1E6B984763DD}"/>
     <hyperlink ref="B62" r:id="rId19" xr:uid="{DC4BF027-014C-4397-933B-52FF18D3D638}"/>
+    <hyperlink ref="B6" r:id="rId20" xr:uid="{C399B2B6-960F-41E2-B869-7EE76F035917}"/>
+    <hyperlink ref="B45" r:id="rId21" xr:uid="{3F918655-CB84-4306-8BEE-DEBA58BD5A5E}"/>
+    <hyperlink ref="B69" r:id="rId22" xr:uid="{041360D0-661B-43F8-8289-19C70A7390A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440E6E7F-A227-461A-8080-D09C50435A91}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{47B5CEB3-7FE3-4AE7-92E2-1C053ED08DE5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DDE5FB-DA94-4AEB-A34B-1A651CE91E50}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1474,53 +1837,53 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
         <v>127</v>
-      </c>
-      <c r="B7" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/MergedDocuments/ontology terms.xlsx
+++ b/MergedDocuments/ontology terms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Rothamsted-Ecoinformatics\YieldbookDatasetDrafts\MergedDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\rothamsted-ecoinformatics\YieldbookDatasetDrafts\MergedDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78952EF5-7ADE-49F6-B6CD-00CA27E22B24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4553A8-C64C-4B42-B798-4EF414B29C1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{798D2C4A-CEDB-4019-8EE2-CB4D387A9407}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{798D2C4A-CEDB-4019-8EE2-CB4D387A9407}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="222">
   <si>
     <t>URI</t>
   </si>
@@ -95,9 +96,6 @@
     <t>chisel plough</t>
   </si>
   <si>
-    <t>AGRO_00000002 </t>
-  </si>
-  <si>
     <t>tillage process</t>
   </si>
   <si>
@@ -464,9 +462,6 @@
     <t>regulation of grazing (grazing)</t>
   </si>
   <si>
-    <t>path maintenance process</t>
-  </si>
-  <si>
     <t>Herrisol</t>
   </si>
   <si>
@@ -618,6 +613,93 @@
   </si>
   <si>
     <t>seed</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_6774</t>
+  </si>
+  <si>
+    <t>sampling</t>
+  </si>
+  <si>
+    <t>weighing</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_25789</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/AGRO_00000231</t>
+  </si>
+  <si>
+    <t>planting process</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_2402</t>
+  </si>
+  <si>
+    <t>desiccation</t>
+  </si>
+  <si>
+    <t>as drying</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_27889</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_27886</t>
+  </si>
+  <si>
+    <t>corrective dressings</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_10795</t>
+  </si>
+  <si>
+    <t>fertilizer application</t>
+  </si>
+  <si>
+    <t>broadcast fertilization</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_1101</t>
+  </si>
+  <si>
+    <t>broadcasting</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_25716</t>
+  </si>
+  <si>
+    <t>topping</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_25090</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_4524</t>
+  </si>
+  <si>
+    <t>(maintenance) path maintenance process</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_330875</t>
+  </si>
+  <si>
+    <t>rotavator</t>
+  </si>
+  <si>
+    <t>http://aims.fao.org/aos/agrovoc/c_12679</t>
+  </si>
+  <si>
+    <t>mowing</t>
+  </si>
+  <si>
+    <t>AGRO_00000002</t>
+  </si>
+  <si>
+    <t>topping (pruning)</t>
+  </si>
+  <si>
+    <t>flex-tine harrowed</t>
   </si>
 </sst>
 </file>
@@ -989,21 +1071,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8617AF10-E0B6-4540-B345-DF04DF36DC6B}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,11 +1096,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1027,19 +1113,25 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1047,29 +1139,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1077,377 +1169,377 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
         <v>89</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="C43" t="s">
         <v>91</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>92</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>95</v>
       </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>101</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
         <v>106</v>
       </c>
-      <c r="C48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
         <v>115</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
         <v>118</v>
       </c>
-      <c r="C52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="C54" t="s">
         <v>122</v>
       </c>
-      <c r="C54" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>10</v>
       </c>
@@ -1455,136 +1547,233 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
         <v>124</v>
       </c>
-      <c r="C56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
         <v>129</v>
       </c>
-      <c r="C57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="C59" t="s">
         <v>131</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>134</v>
       </c>
-      <c r="C60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+      <c r="C62" t="s">
         <v>137</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>138</v>
       </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" t="s">
         <v>140</v>
       </c>
-      <c r="C63" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>180</v>
       </c>
-      <c r="C65" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C66" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>182</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="E67" t="s">
         <v>184</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>185</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C68" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="E68" t="s">
         <v>187</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D68" t="s">
+      <c r="C69" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
+      <c r="E69" t="s">
         <v>190</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>191</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C70" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1611,9 +1800,23 @@
     <hyperlink ref="B6" r:id="rId20" xr:uid="{C399B2B6-960F-41E2-B869-7EE76F035917}"/>
     <hyperlink ref="B45" r:id="rId21" xr:uid="{3F918655-CB84-4306-8BEE-DEBA58BD5A5E}"/>
     <hyperlink ref="B69" r:id="rId22" xr:uid="{041360D0-661B-43F8-8289-19C70A7390A2}"/>
+    <hyperlink ref="B51" r:id="rId23" xr:uid="{9B32FB7A-FF07-45DE-A05E-A9AE491D37EB}"/>
+    <hyperlink ref="A73" r:id="rId24" xr:uid="{35D62BCD-2302-451C-A301-7646C6EDC125}"/>
+    <hyperlink ref="B74" r:id="rId25" xr:uid="{565CDAFD-D8C4-4E5A-AE4F-7E1B86B8B788}"/>
+    <hyperlink ref="B63" r:id="rId26" xr:uid="{60FC4CFE-2A7F-41A7-84D9-76C6C1AE8BF3}"/>
+    <hyperlink ref="B75" r:id="rId27" xr:uid="{0ADE8344-572F-4C87-B98B-7D41F985E3F2}"/>
+    <hyperlink ref="B3" r:id="rId28" xr:uid="{A9A76432-93E6-4C7A-9771-36E8A6BDE124}"/>
+    <hyperlink ref="B76" r:id="rId29" xr:uid="{7C6041D9-66B4-4D3B-B7F0-C0328FC4EC58}"/>
+    <hyperlink ref="B77" r:id="rId30" xr:uid="{341C1DE1-5C89-43DA-A7CE-185EAAD72FAE}"/>
+    <hyperlink ref="B78" r:id="rId31" xr:uid="{A3C55E38-E165-413A-A8CE-D2C7CC60CC7F}"/>
+    <hyperlink ref="B64" r:id="rId32" xr:uid="{3D46E2EB-E9C0-416F-8A84-DCC271E218B4}"/>
+    <hyperlink ref="B80" r:id="rId33" xr:uid="{9D7F36C2-D72B-4D43-80A6-F2E4DDBBB4F0}"/>
+    <hyperlink ref="B71" r:id="rId34" xr:uid="{1C27F175-8056-4319-A965-B4290B3B9B00}"/>
+    <hyperlink ref="B72" r:id="rId35" xr:uid="{DA978C25-02D7-4F7A-9A64-00BAC6FD3DD6}"/>
+    <hyperlink ref="B79" r:id="rId36" xr:uid="{8ED40553-5960-4E04-8822-D24381A9019B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -1625,199 +1828,199 @@
       <selection activeCell="A2" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
         <v>154</v>
       </c>
-      <c r="I1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>171</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
         <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1837,53 +2040,53 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/MergedDocuments/ontology terms.xlsx
+++ b/MergedDocuments/ontology terms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\rothamsted-ecoinformatics\YieldbookDatasetDrafts\MergedDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Rothamsted-Ecoinformatics\YieldbookDatasetDrafts\MergedDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4553A8-C64C-4B42-B798-4EF414B29C1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AD67AE-F8E0-4CAE-B028-750C7EFD6A1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{798D2C4A-CEDB-4019-8EE2-CB4D387A9407}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{798D2C4A-CEDB-4019-8EE2-CB4D387A9407}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
   <si>
     <t>URI</t>
   </si>
@@ -42,18 +41,9 @@
     <t>label</t>
   </si>
   <si>
-    <t>CHEBI_91238</t>
-  </si>
-  <si>
-    <t>calcium ammonium nitrate</t>
-  </si>
-  <si>
     <t>Used for</t>
   </si>
   <si>
-    <t>nitrochalk</t>
-  </si>
-  <si>
     <t>AGRO_01000000</t>
   </si>
   <si>
@@ -78,18 +68,6 @@
     <t>Agrovoc</t>
   </si>
   <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_352</t>
-  </si>
-  <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_23997</t>
-  </si>
-  <si>
-    <t>ammonium nitrate</t>
-  </si>
-  <si>
-    <t>nitram</t>
-  </si>
-  <si>
     <t>AGRO_00000131</t>
   </si>
   <si>
@@ -174,18 +152,6 @@
     <t>Prefer secondary tillage and primary tillage</t>
   </si>
   <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_330784</t>
-  </si>
-  <si>
-    <t>secondary tillage</t>
-  </si>
-  <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_330863</t>
-  </si>
-  <si>
-    <t>primary tillage</t>
-  </si>
-  <si>
     <t>AGRO_00000004</t>
   </si>
   <si>
@@ -267,12 +233,6 @@
     <t>crop residue removal process</t>
   </si>
   <si>
-    <t>AGRO_00000464</t>
-  </si>
-  <si>
-    <t>baling process</t>
-  </si>
-  <si>
     <t>AGRO_00000133</t>
   </si>
   <si>
@@ -345,12 +305,6 @@
     <t>PK fertilisers</t>
   </si>
   <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_2385</t>
-  </si>
-  <si>
-    <t>fertiliser drilling</t>
-  </si>
-  <si>
     <t>http://aims.fao.org/aos/agrovoc/c_5805</t>
   </si>
   <si>
@@ -378,18 +332,6 @@
     <t>the method for the process, really this is a narrower class of the process?</t>
   </si>
   <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_330801</t>
-  </si>
-  <si>
-    <t>manual harvesting</t>
-  </si>
-  <si>
-    <t>mechanical harvesting</t>
-  </si>
-  <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_35384</t>
-  </si>
-  <si>
     <t>Mancozeb</t>
   </si>
   <si>
@@ -405,12 +347,6 @@
     <t>sprayers</t>
   </si>
   <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_26844</t>
-  </si>
-  <si>
-    <t>lifting</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -444,15 +380,6 @@
     <t>http://aims.fao.org/aos/agrovoc/c_25243</t>
   </si>
   <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_6140</t>
-  </si>
-  <si>
-    <t>potassium chloride</t>
-  </si>
-  <si>
-    <t>muriate of potash</t>
-  </si>
-  <si>
     <t>AGRO_00000040</t>
   </si>
   <si>
@@ -615,18 +542,6 @@
     <t>seed</t>
   </si>
   <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_6774</t>
-  </si>
-  <si>
-    <t>sampling</t>
-  </si>
-  <si>
-    <t>weighing</t>
-  </si>
-  <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_25789</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/AGRO_00000231</t>
   </si>
   <si>
@@ -660,43 +575,13 @@
     <t>broadcast fertilization</t>
   </si>
   <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_1101</t>
-  </si>
-  <si>
-    <t>broadcasting</t>
-  </si>
-  <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_25716</t>
-  </si>
-  <si>
-    <t>topping</t>
-  </si>
-  <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_25090</t>
-  </si>
-  <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_4524</t>
-  </si>
-  <si>
-    <t>(maintenance) path maintenance process</t>
-  </si>
-  <si>
     <t>http://aims.fao.org/aos/agrovoc/c_330875</t>
   </si>
   <si>
     <t>rotavator</t>
   </si>
   <si>
-    <t>http://aims.fao.org/aos/agrovoc/c_12679</t>
-  </si>
-  <si>
-    <t>mowing</t>
-  </si>
-  <si>
     <t>AGRO_00000002</t>
-  </si>
-  <si>
-    <t>topping (pruning)</t>
   </si>
   <si>
     <t>flex-tine harrowed</t>
@@ -1071,752 +956,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8617AF10-E0B6-4540-B345-DF04DF36DC6B}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>24</v>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>82</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C45" t="s">
         <v>88</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
         <v>91</v>
       </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+      <c r="C52" t="s">
         <v>103</v>
       </c>
-      <c r="C49" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>202</v>
+      <c r="D61" t="s">
+        <v>179</v>
+      </c>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
-        <v>213</v>
+        <v>153</v>
+      </c>
+      <c r="E63" t="s">
+        <v>155</v>
+      </c>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>156</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" t="s">
+        <v>163</v>
+      </c>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" t="s">
+        <v>166</v>
+      </c>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" t="s">
+        <v>168</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C77" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>183</v>
-      </c>
-      <c r="E67" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" t="s">
-        <v>186</v>
-      </c>
-      <c r="E68" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" t="s">
-        <v>189</v>
-      </c>
-      <c r="E69" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>191</v>
-      </c>
-      <c r="C70" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C74" t="s">
-        <v>200</v>
-      </c>
-      <c r="E74" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C75" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C76" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C80" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{E8ECF4CD-7CD7-42C5-B57E-833FB4BD4482}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{91A0E43E-EFAC-48C2-B3A9-047E51638E75}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{F886B5A5-8158-442C-8171-F8AF35B6F547}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{FE50C890-7992-45B2-A3CC-55ECB25B72E3}"/>
-    <hyperlink ref="B43" r:id="rId5" xr:uid="{6168293E-81DE-4FF4-AE22-07B99CD366EF}"/>
-    <hyperlink ref="B46" r:id="rId6" xr:uid="{B6DF11FC-845E-4226-857D-66CBB21C6AA6}"/>
-    <hyperlink ref="B34" r:id="rId7" xr:uid="{6E15590F-7BD3-4777-BB0A-99862A934118}"/>
-    <hyperlink ref="B49" r:id="rId8" xr:uid="{D3188A1B-1806-41A8-A4BD-7E3A190C3887}"/>
-    <hyperlink ref="B48" r:id="rId9" xr:uid="{B5B6565E-ED15-44F6-82CD-B66491647428}"/>
-    <hyperlink ref="B39" r:id="rId10" xr:uid="{91D4DBFC-CDA9-430B-ACEA-98CB5AE9A215}"/>
-    <hyperlink ref="B52" r:id="rId11" xr:uid="{51B5E1F0-2D4C-41D2-BB73-39297D200322}"/>
-    <hyperlink ref="B53" r:id="rId12" xr:uid="{9C93D84B-BAF8-4C88-B369-C66AF0F2995A}"/>
-    <hyperlink ref="B54" r:id="rId13" xr:uid="{B390579F-23C4-422D-8CA5-72F2347B2A96}"/>
-    <hyperlink ref="B56" r:id="rId14" xr:uid="{CF41313F-3D83-444D-BA7C-D0E2890A03A5}"/>
-    <hyperlink ref="B57" r:id="rId15" xr:uid="{7BEE7777-5685-4838-8613-00B8ED39F060}"/>
-    <hyperlink ref="B59" r:id="rId16" xr:uid="{F23E4EA8-EDB8-4CFF-8D38-0FCC57EB79A7}"/>
-    <hyperlink ref="B60" r:id="rId17" xr:uid="{9BD889A8-9DD2-4D19-A346-45BE7FE35618}"/>
-    <hyperlink ref="B61" r:id="rId18" xr:uid="{0EEA89E1-06E8-4A42-8019-1E6B984763DD}"/>
-    <hyperlink ref="B62" r:id="rId19" xr:uid="{DC4BF027-014C-4397-933B-52FF18D3D638}"/>
-    <hyperlink ref="B6" r:id="rId20" xr:uid="{C399B2B6-960F-41E2-B869-7EE76F035917}"/>
-    <hyperlink ref="B45" r:id="rId21" xr:uid="{3F918655-CB84-4306-8BEE-DEBA58BD5A5E}"/>
-    <hyperlink ref="B69" r:id="rId22" xr:uid="{041360D0-661B-43F8-8289-19C70A7390A2}"/>
-    <hyperlink ref="B51" r:id="rId23" xr:uid="{9B32FB7A-FF07-45DE-A05E-A9AE491D37EB}"/>
-    <hyperlink ref="A73" r:id="rId24" xr:uid="{35D62BCD-2302-451C-A301-7646C6EDC125}"/>
-    <hyperlink ref="B74" r:id="rId25" xr:uid="{565CDAFD-D8C4-4E5A-AE4F-7E1B86B8B788}"/>
-    <hyperlink ref="B63" r:id="rId26" xr:uid="{60FC4CFE-2A7F-41A7-84D9-76C6C1AE8BF3}"/>
-    <hyperlink ref="B75" r:id="rId27" xr:uid="{0ADE8344-572F-4C87-B98B-7D41F985E3F2}"/>
-    <hyperlink ref="B3" r:id="rId28" xr:uid="{A9A76432-93E6-4C7A-9771-36E8A6BDE124}"/>
-    <hyperlink ref="B76" r:id="rId29" xr:uid="{7C6041D9-66B4-4D3B-B7F0-C0328FC4EC58}"/>
-    <hyperlink ref="B77" r:id="rId30" xr:uid="{341C1DE1-5C89-43DA-A7CE-185EAAD72FAE}"/>
-    <hyperlink ref="B78" r:id="rId31" xr:uid="{A3C55E38-E165-413A-A8CE-D2C7CC60CC7F}"/>
-    <hyperlink ref="B64" r:id="rId32" xr:uid="{3D46E2EB-E9C0-416F-8A84-DCC271E218B4}"/>
-    <hyperlink ref="B80" r:id="rId33" xr:uid="{9D7F36C2-D72B-4D43-80A6-F2E4DDBBB4F0}"/>
-    <hyperlink ref="B71" r:id="rId34" xr:uid="{1C27F175-8056-4319-A965-B4290B3B9B00}"/>
-    <hyperlink ref="B72" r:id="rId35" xr:uid="{DA978C25-02D7-4F7A-9A64-00BAC6FD3DD6}"/>
-    <hyperlink ref="B79" r:id="rId36" xr:uid="{8ED40553-5960-4E04-8822-D24381A9019B}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{E8ECF4CD-7CD7-42C5-B57E-833FB4BD4482}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{91A0E43E-EFAC-48C2-B3A9-047E51638E75}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{F886B5A5-8158-442C-8171-F8AF35B6F547}"/>
+    <hyperlink ref="B19" r:id="rId4" xr:uid="{FE50C890-7992-45B2-A3CC-55ECB25B72E3}"/>
+    <hyperlink ref="B41" r:id="rId5" xr:uid="{6168293E-81DE-4FF4-AE22-07B99CD366EF}"/>
+    <hyperlink ref="B44" r:id="rId6" xr:uid="{B6DF11FC-845E-4226-857D-66CBB21C6AA6}"/>
+    <hyperlink ref="B32" r:id="rId7" xr:uid="{6E15590F-7BD3-4777-BB0A-99862A934118}"/>
+    <hyperlink ref="B46" r:id="rId8" xr:uid="{B5B6565E-ED15-44F6-82CD-B66491647428}"/>
+    <hyperlink ref="B37" r:id="rId9" xr:uid="{91D4DBFC-CDA9-430B-ACEA-98CB5AE9A215}"/>
+    <hyperlink ref="B52" r:id="rId10" xr:uid="{B390579F-23C4-422D-8CA5-72F2347B2A96}"/>
+    <hyperlink ref="B58" r:id="rId11" xr:uid="{9BD889A8-9DD2-4D19-A346-45BE7FE35618}"/>
+    <hyperlink ref="B59" r:id="rId12" xr:uid="{0EEA89E1-06E8-4A42-8019-1E6B984763DD}"/>
+    <hyperlink ref="B43" r:id="rId13" xr:uid="{3F918655-CB84-4306-8BEE-DEBA58BD5A5E}"/>
+    <hyperlink ref="B67" r:id="rId14" xr:uid="{041360D0-661B-43F8-8289-19C70A7390A2}"/>
+    <hyperlink ref="A71" r:id="rId15" xr:uid="{35D62BCD-2302-451C-A301-7646C6EDC125}"/>
+    <hyperlink ref="B72" r:id="rId16" xr:uid="{565CDAFD-D8C4-4E5A-AE4F-7E1B86B8B788}"/>
+    <hyperlink ref="B61" r:id="rId17" xr:uid="{60FC4CFE-2A7F-41A7-84D9-76C6C1AE8BF3}"/>
+    <hyperlink ref="B73" r:id="rId18" xr:uid="{0ADE8344-572F-4C87-B98B-7D41F985E3F2}"/>
+    <hyperlink ref="B2" r:id="rId19" xr:uid="{A9A76432-93E6-4C7A-9771-36E8A6BDE124}"/>
+    <hyperlink ref="B77" r:id="rId20" xr:uid="{8ED40553-5960-4E04-8822-D24381A9019B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -1828,199 +1552,199 @@
       <selection activeCell="A2" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>147</v>
       </c>
-      <c r="J1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>150</v>
       </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B15" t="s">
         <v>149</v>
       </c>
-      <c r="D6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" t="s">
-        <v>173</v>
-      </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2040,53 +1764,53 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
